--- a/files/bdAfiliadosIndicação.xlsx
+++ b/files/bdAfiliadosIndicação.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -358,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2753,6 +2820,112 @@
         </is>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>506170119</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Corrente</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 506170119</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thaís Souza Gonçalves </t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>floripaexcellence@gmail.com</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Excellence Floripa</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2109151-9</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>403</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>45.534.015/0001-78</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>+55 48 9111-4922</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thaís Souza Gonçalves </t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>013.739.240-04</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>45.534.015/0001-78</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>Rua Pedra de Listras</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>370</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>88032-225</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Florianópolis </t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
